--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Col1a1-Itga5.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Col1a1-Itga5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itga5</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>48.4537623346414</v>
+        <v>89.95998966666667</v>
       </c>
       <c r="H2">
-        <v>48.4537623346414</v>
+        <v>269.879969</v>
       </c>
       <c r="I2">
-        <v>0.01237237634900862</v>
+        <v>0.02265176537473209</v>
       </c>
       <c r="J2">
-        <v>0.01237237634900862</v>
+        <v>0.0226517653747321</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>42.8578073733629</v>
+        <v>42.909214</v>
       </c>
       <c r="N2">
-        <v>42.8578073733629</v>
+        <v>128.727642</v>
       </c>
       <c r="O2">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="P2">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="Q2">
-        <v>2076.622012652768</v>
+        <v>3860.112448044789</v>
       </c>
       <c r="R2">
-        <v>2076.622012652768</v>
+        <v>34741.0120324031</v>
       </c>
       <c r="S2">
-        <v>0.00303486604497641</v>
+        <v>0.00548767946807664</v>
       </c>
       <c r="T2">
-        <v>0.00303486604497641</v>
+        <v>0.005487679468076641</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>48.4537623346414</v>
+        <v>89.95998966666667</v>
       </c>
       <c r="H3">
-        <v>48.4537623346414</v>
+        <v>269.879969</v>
       </c>
       <c r="I3">
-        <v>0.01237237634900862</v>
+        <v>0.02265176537473209</v>
       </c>
       <c r="J3">
-        <v>0.01237237634900862</v>
+        <v>0.0226517653747321</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>53.3594590699601</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N3">
-        <v>53.3594590699601</v>
+        <v>160.0844</v>
       </c>
       <c r="O3">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="P3">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="Q3">
-        <v>2585.466548080872</v>
+        <v>4800.396989931512</v>
       </c>
       <c r="R3">
-        <v>2585.466548080872</v>
+        <v>43203.57290938361</v>
       </c>
       <c r="S3">
-        <v>0.003778513657942732</v>
+        <v>0.006824422955245061</v>
       </c>
       <c r="T3">
-        <v>0.003778513657942732</v>
+        <v>0.006824422955245062</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>48.4537623346414</v>
+        <v>89.95998966666667</v>
       </c>
       <c r="H4">
-        <v>48.4537623346414</v>
+        <v>269.879969</v>
       </c>
       <c r="I4">
-        <v>0.01237237634900862</v>
+        <v>0.02265176537473209</v>
       </c>
       <c r="J4">
-        <v>0.01237237634900862</v>
+        <v>0.0226517653747321</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>39.0973488729948</v>
+        <v>39.98186433333333</v>
       </c>
       <c r="N4">
-        <v>39.0973488729948</v>
+        <v>119.945593</v>
       </c>
       <c r="O4">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="P4">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="Q4">
-        <v>1894.41365020665</v>
+        <v>3596.768102280736</v>
       </c>
       <c r="R4">
-        <v>1894.41365020665</v>
+        <v>32370.91292052662</v>
       </c>
       <c r="S4">
-        <v>0.002768578791480488</v>
+        <v>0.005113299348654093</v>
       </c>
       <c r="T4">
-        <v>0.002768578791480488</v>
+        <v>0.005113299348654093</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>48.4537623346414</v>
+        <v>89.95998966666667</v>
       </c>
       <c r="H5">
-        <v>48.4537623346414</v>
+        <v>269.879969</v>
       </c>
       <c r="I5">
-        <v>0.01237237634900862</v>
+        <v>0.02265176537473209</v>
       </c>
       <c r="J5">
-        <v>0.01237237634900862</v>
+        <v>0.0226517653747321</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>33.2355516879285</v>
+        <v>34.39145933333334</v>
       </c>
       <c r="N5">
-        <v>33.2355516879285</v>
+        <v>103.174378</v>
       </c>
       <c r="O5">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="P5">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="Q5">
-        <v>1610.387522547577</v>
+        <v>3093.855326248254</v>
       </c>
       <c r="R5">
-        <v>1610.387522547577</v>
+        <v>27844.69793623429</v>
       </c>
       <c r="S5">
-        <v>0.002353490611991568</v>
+        <v>0.004398339835838664</v>
       </c>
       <c r="T5">
-        <v>0.002353490611991568</v>
+        <v>0.004398339835838664</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>48.4537623346414</v>
+        <v>89.95998966666667</v>
       </c>
       <c r="H6">
-        <v>48.4537623346414</v>
+        <v>269.879969</v>
       </c>
       <c r="I6">
-        <v>0.01237237634900862</v>
+        <v>0.02265176537473209</v>
       </c>
       <c r="J6">
-        <v>0.01237237634900862</v>
+        <v>0.0226517653747321</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.17020432623986</v>
+        <v>6.474476</v>
       </c>
       <c r="N6">
-        <v>6.17020432623986</v>
+        <v>19.423428</v>
       </c>
       <c r="O6">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="P6">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="Q6">
-        <v>298.9696139798023</v>
+        <v>582.4437940570814</v>
       </c>
       <c r="R6">
-        <v>298.9696139798023</v>
+        <v>5241.994146513733</v>
       </c>
       <c r="S6">
-        <v>0.000436927242617418</v>
+        <v>0.0008280237669176363</v>
       </c>
       <c r="T6">
-        <v>0.000436927242617418</v>
+        <v>0.0008280237669176364</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3844.36250207129</v>
+        <v>3857.568359333333</v>
       </c>
       <c r="H7">
-        <v>3844.36250207129</v>
+        <v>11572.705078</v>
       </c>
       <c r="I7">
-        <v>0.981634808235257</v>
+        <v>0.9713288509301208</v>
       </c>
       <c r="J7">
-        <v>0.981634808235257</v>
+        <v>0.971328850930121</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>42.8578073733629</v>
+        <v>42.909214</v>
       </c>
       <c r="N7">
-        <v>42.8578073733629</v>
+        <v>128.727642</v>
       </c>
       <c r="O7">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="P7">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="Q7">
-        <v>164760.9475871508</v>
+        <v>165525.2262502629</v>
       </c>
       <c r="R7">
-        <v>164760.9475871508</v>
+        <v>1489727.036252366</v>
       </c>
       <c r="S7">
-        <v>0.2407888399158521</v>
+        <v>0.2353168198512979</v>
       </c>
       <c r="T7">
-        <v>0.2407888399158521</v>
+        <v>0.235316819851298</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3844.36250207129</v>
+        <v>3857.568359333333</v>
       </c>
       <c r="H8">
-        <v>3844.36250207129</v>
+        <v>11572.705078</v>
       </c>
       <c r="I8">
-        <v>0.981634808235257</v>
+        <v>0.9713288509301208</v>
       </c>
       <c r="J8">
-        <v>0.981634808235257</v>
+        <v>0.971328850930121</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>53.3594590699601</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N8">
-        <v>53.3594590699601</v>
+        <v>160.0844</v>
       </c>
       <c r="O8">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="P8">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="Q8">
-        <v>205133.1035793624</v>
+        <v>205845.5054209537</v>
       </c>
       <c r="R8">
-        <v>205133.1035793624</v>
+        <v>1852609.548788583</v>
       </c>
       <c r="S8">
-        <v>0.2997904707551286</v>
+        <v>0.292637628799284</v>
       </c>
       <c r="T8">
-        <v>0.2997904707551286</v>
+        <v>0.2926376287992841</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3844.36250207129</v>
+        <v>3857.568359333333</v>
       </c>
       <c r="H9">
-        <v>3844.36250207129</v>
+        <v>11572.705078</v>
       </c>
       <c r="I9">
-        <v>0.981634808235257</v>
+        <v>0.9713288509301208</v>
       </c>
       <c r="J9">
-        <v>0.981634808235257</v>
+        <v>0.971328850930121</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>39.0973488729948</v>
+        <v>39.98186433333333</v>
       </c>
       <c r="N9">
-        <v>39.0973488729948</v>
+        <v>119.945593</v>
       </c>
       <c r="O9">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="P9">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="Q9">
-        <v>150304.3819377404</v>
+        <v>154232.7747994246</v>
       </c>
       <c r="R9">
-        <v>150304.3819377404</v>
+        <v>1388094.973194821</v>
       </c>
       <c r="S9">
-        <v>0.219661383908429</v>
+        <v>0.2192630507435077</v>
       </c>
       <c r="T9">
-        <v>0.219661383908429</v>
+        <v>0.2192630507435078</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3844.36250207129</v>
+        <v>3857.568359333333</v>
       </c>
       <c r="H10">
-        <v>3844.36250207129</v>
+        <v>11572.705078</v>
       </c>
       <c r="I10">
-        <v>0.981634808235257</v>
+        <v>0.9713288509301208</v>
       </c>
       <c r="J10">
-        <v>0.981634808235257</v>
+        <v>0.971328850930121</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.2355516879285</v>
+        <v>34.39145933333334</v>
       </c>
       <c r="N10">
-        <v>33.2355516879285</v>
+        <v>103.174378</v>
       </c>
       <c r="O10">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="P10">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="Q10">
-        <v>127769.5086447245</v>
+        <v>132667.4053555657</v>
       </c>
       <c r="R10">
-        <v>127769.5086447245</v>
+        <v>1194006.648200091</v>
       </c>
       <c r="S10">
-        <v>0.1867279365269987</v>
+        <v>0.1886049192223665</v>
       </c>
       <c r="T10">
-        <v>0.1867279365269987</v>
+        <v>0.1886049192223666</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3844.36250207129</v>
+        <v>3857.568359333333</v>
       </c>
       <c r="H11">
-        <v>3844.36250207129</v>
+        <v>11572.705078</v>
       </c>
       <c r="I11">
-        <v>0.981634808235257</v>
+        <v>0.9713288509301208</v>
       </c>
       <c r="J11">
-        <v>0.981634808235257</v>
+        <v>0.971328850930121</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.17020432623986</v>
+        <v>6.474476</v>
       </c>
       <c r="N11">
-        <v>6.17020432623986</v>
+        <v>19.423428</v>
       </c>
       <c r="O11">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="P11">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="Q11">
-        <v>23720.50214191457</v>
+        <v>24975.73376086304</v>
       </c>
       <c r="R11">
-        <v>23720.50214191457</v>
+        <v>224781.6038477674</v>
       </c>
       <c r="S11">
-        <v>0.03466617712884851</v>
+        <v>0.03550643231366466</v>
       </c>
       <c r="T11">
-        <v>0.03466617712884851</v>
+        <v>0.03550643231366467</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.128936447352119</v>
+        <v>0.1342213333333333</v>
       </c>
       <c r="H12">
-        <v>0.128936447352119</v>
+        <v>0.402664</v>
       </c>
       <c r="I12">
-        <v>3.292314517760468E-05</v>
+        <v>3.379669297668818E-05</v>
       </c>
       <c r="J12">
-        <v>3.292314517760468E-05</v>
+        <v>3.379669297668818E-05</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>42.8578073733629</v>
+        <v>42.909214</v>
       </c>
       <c r="N12">
-        <v>42.8578073733629</v>
+        <v>128.727642</v>
       </c>
       <c r="O12">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="P12">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="Q12">
-        <v>5.525933424022864</v>
+        <v>5.759331915365333</v>
       </c>
       <c r="R12">
-        <v>5.525933424022864</v>
+        <v>51.833987238288</v>
       </c>
       <c r="S12">
-        <v>8.075840289270502E-06</v>
+        <v>8.187680521534416E-06</v>
       </c>
       <c r="T12">
-        <v>8.075840289270502E-06</v>
+        <v>8.187680521534418E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.128936447352119</v>
+        <v>0.1342213333333333</v>
       </c>
       <c r="H13">
-        <v>0.128936447352119</v>
+        <v>0.402664</v>
       </c>
       <c r="I13">
-        <v>3.292314517760468E-05</v>
+        <v>3.379669297668818E-05</v>
       </c>
       <c r="J13">
-        <v>3.292314517760468E-05</v>
+        <v>3.379669297668818E-05</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.3594590699601</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N13">
-        <v>53.3594590699601</v>
+        <v>160.0844</v>
       </c>
       <c r="O13">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="P13">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="Q13">
-        <v>6.87997908511146</v>
+        <v>7.162247204622223</v>
       </c>
       <c r="R13">
-        <v>6.87997908511146</v>
+        <v>64.46022484160001</v>
       </c>
       <c r="S13">
-        <v>1.0054701716698E-05</v>
+        <v>1.018211709091606E-05</v>
       </c>
       <c r="T13">
-        <v>1.0054701716698E-05</v>
+        <v>1.018211709091606E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.128936447352119</v>
+        <v>0.1342213333333333</v>
       </c>
       <c r="H14">
-        <v>0.128936447352119</v>
+        <v>0.402664</v>
       </c>
       <c r="I14">
-        <v>3.292314517760468E-05</v>
+        <v>3.379669297668818E-05</v>
       </c>
       <c r="J14">
-        <v>3.292314517760468E-05</v>
+        <v>3.379669297668818E-05</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>39.0973488729948</v>
+        <v>39.98186433333333</v>
       </c>
       <c r="N14">
-        <v>39.0973488729948</v>
+        <v>119.945593</v>
       </c>
       <c r="O14">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="P14">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="Q14">
-        <v>5.041073264570324</v>
+        <v>5.366419139972445</v>
       </c>
       <c r="R14">
-        <v>5.041073264570324</v>
+        <v>48.297772259752</v>
       </c>
       <c r="S14">
-        <v>7.367244490170491E-06</v>
+        <v>7.629101102077167E-06</v>
       </c>
       <c r="T14">
-        <v>7.367244490170491E-06</v>
+        <v>7.629101102077167E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.128936447352119</v>
+        <v>0.1342213333333333</v>
       </c>
       <c r="H15">
-        <v>0.128936447352119</v>
+        <v>0.402664</v>
       </c>
       <c r="I15">
-        <v>3.292314517760468E-05</v>
+        <v>3.379669297668818E-05</v>
       </c>
       <c r="J15">
-        <v>3.292314517760468E-05</v>
+        <v>3.379669297668818E-05</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>33.2355516879285</v>
+        <v>34.39145933333334</v>
       </c>
       <c r="N15">
-        <v>33.2355516879285</v>
+        <v>103.174378</v>
       </c>
       <c r="O15">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="P15">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="Q15">
-        <v>4.285273960429223</v>
+        <v>4.616067526999111</v>
       </c>
       <c r="R15">
-        <v>4.285273960429223</v>
+        <v>41.54460774299201</v>
       </c>
       <c r="S15">
-        <v>6.262686399685603E-06</v>
+        <v>6.562373332932092E-06</v>
       </c>
       <c r="T15">
-        <v>6.262686399685603E-06</v>
+        <v>6.562373332932092E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.128936447352119</v>
+        <v>0.1342213333333333</v>
       </c>
       <c r="H16">
-        <v>0.128936447352119</v>
+        <v>0.402664</v>
       </c>
       <c r="I16">
-        <v>3.292314517760468E-05</v>
+        <v>3.379669297668818E-05</v>
       </c>
       <c r="J16">
-        <v>3.292314517760468E-05</v>
+        <v>3.379669297668818E-05</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.17020432623986</v>
+        <v>6.474476</v>
       </c>
       <c r="N16">
-        <v>6.17020432623986</v>
+        <v>19.423428</v>
       </c>
       <c r="O16">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="P16">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="Q16">
-        <v>0.7955642252620426</v>
+        <v>0.8690128013546666</v>
       </c>
       <c r="R16">
-        <v>0.7955642252620426</v>
+        <v>7.821115212192001</v>
       </c>
       <c r="S16">
-        <v>1.162672281780081E-06</v>
+        <v>1.235420929228442E-06</v>
       </c>
       <c r="T16">
-        <v>1.162672281780081E-06</v>
+        <v>1.235420929228442E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>23.3406417224581</v>
+        <v>0.253661</v>
       </c>
       <c r="H17">
-        <v>23.3406417224581</v>
+        <v>0.760983</v>
       </c>
       <c r="I17">
-        <v>0.005959892270556777</v>
+        <v>6.387138858074995E-05</v>
       </c>
       <c r="J17">
-        <v>0.005959892270556777</v>
+        <v>6.387138858074996E-05</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>42.8578073733629</v>
+        <v>42.909214</v>
       </c>
       <c r="N17">
-        <v>42.8578073733629</v>
+        <v>128.727642</v>
       </c>
       <c r="O17">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="P17">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="Q17">
-        <v>1000.328726911786</v>
+        <v>10.884394132454</v>
       </c>
       <c r="R17">
-        <v>1000.328726911786</v>
+        <v>97.95954719208599</v>
       </c>
       <c r="S17">
-        <v>0.001461924061587364</v>
+        <v>1.547365964257749E-05</v>
       </c>
       <c r="T17">
-        <v>0.001461924061587364</v>
+        <v>1.54736596425775E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>23.3406417224581</v>
+        <v>0.253661</v>
       </c>
       <c r="H18">
-        <v>23.3406417224581</v>
+        <v>0.760983</v>
       </c>
       <c r="I18">
-        <v>0.005959892270556777</v>
+        <v>6.387138858074995E-05</v>
       </c>
       <c r="J18">
-        <v>0.005959892270556777</v>
+        <v>6.387138858074996E-05</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>53.3594590699601</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N18">
-        <v>53.3594590699601</v>
+        <v>160.0844</v>
       </c>
       <c r="O18">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="P18">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="Q18">
-        <v>1245.444016656106</v>
+        <v>13.53572299613333</v>
       </c>
       <c r="R18">
-        <v>1245.444016656106</v>
+        <v>121.8215069652</v>
       </c>
       <c r="S18">
-        <v>0.001820146244255701</v>
+        <v>1.924288739543783E-05</v>
       </c>
       <c r="T18">
-        <v>0.001820146244255701</v>
+        <v>1.924288739543783E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>23.3406417224581</v>
+        <v>0.253661</v>
       </c>
       <c r="H19">
-        <v>23.3406417224581</v>
+        <v>0.760983</v>
       </c>
       <c r="I19">
-        <v>0.005959892270556777</v>
+        <v>6.387138858074995E-05</v>
       </c>
       <c r="J19">
-        <v>0.005959892270556777</v>
+        <v>6.387138858074996E-05</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>39.0973488729948</v>
+        <v>39.98186433333333</v>
       </c>
       <c r="N19">
-        <v>39.0973488729948</v>
+        <v>119.945593</v>
       </c>
       <c r="O19">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="P19">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="Q19">
-        <v>912.5572123425226</v>
+        <v>10.14183968865767</v>
       </c>
       <c r="R19">
-        <v>912.5572123425226</v>
+        <v>91.276557197919</v>
       </c>
       <c r="S19">
-        <v>0.001333650939343932</v>
+        <v>1.441801661922096E-05</v>
       </c>
       <c r="T19">
-        <v>0.001333650939343932</v>
+        <v>1.441801661922096E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>23.3406417224581</v>
+        <v>0.253661</v>
       </c>
       <c r="H20">
-        <v>23.3406417224581</v>
+        <v>0.760983</v>
       </c>
       <c r="I20">
-        <v>0.005959892270556777</v>
+        <v>6.387138858074995E-05</v>
       </c>
       <c r="J20">
-        <v>0.005959892270556777</v>
+        <v>6.387138858074996E-05</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>33.2355516879285</v>
+        <v>34.39145933333334</v>
       </c>
       <c r="N20">
-        <v>33.2355516879285</v>
+        <v>103.174378</v>
       </c>
       <c r="O20">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="P20">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="Q20">
-        <v>775.7391043961766</v>
+        <v>8.723771965952666</v>
       </c>
       <c r="R20">
-        <v>775.7391043961766</v>
+        <v>78.513947693574</v>
       </c>
       <c r="S20">
-        <v>0.001133698984864813</v>
+        <v>1.240203878671712E-05</v>
       </c>
       <c r="T20">
-        <v>0.001133698984864813</v>
+        <v>1.240203878671712E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.253661</v>
+      </c>
+      <c r="H21">
+        <v>0.760983</v>
+      </c>
+      <c r="I21">
+        <v>6.387138858074995E-05</v>
+      </c>
+      <c r="J21">
+        <v>6.387138858074996E-05</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>6.474476</v>
+      </c>
+      <c r="N21">
+        <v>19.423428</v>
+      </c>
+      <c r="O21">
+        <v>0.03655449159125106</v>
+      </c>
+      <c r="P21">
+        <v>0.03655449159125106</v>
+      </c>
+      <c r="Q21">
+        <v>1.642322056636</v>
+      </c>
+      <c r="R21">
+        <v>14.780898509724</v>
+      </c>
+      <c r="S21">
+        <v>2.334786136796553E-06</v>
+      </c>
+      <c r="T21">
+        <v>2.334786136796554E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>23.51770233333334</v>
+      </c>
+      <c r="H22">
+        <v>70.55310700000001</v>
+      </c>
+      <c r="I22">
+        <v>0.005921715613589568</v>
+      </c>
+      <c r="J22">
+        <v>0.005921715613589569</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>42.909214</v>
+      </c>
+      <c r="N22">
+        <v>128.727642</v>
+      </c>
+      <c r="O22">
+        <v>0.2422627718984814</v>
+      </c>
+      <c r="P22">
+        <v>0.2422627718984814</v>
+      </c>
+      <c r="Q22">
+        <v>1009.126122209299</v>
+      </c>
+      <c r="R22">
+        <v>9082.135099883695</v>
+      </c>
+      <c r="S22">
+        <v>0.001434611238942726</v>
+      </c>
+      <c r="T22">
+        <v>0.001434611238942726</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>23.51770233333334</v>
+      </c>
+      <c r="H23">
+        <v>70.55310700000001</v>
+      </c>
+      <c r="I23">
+        <v>0.005921715613589568</v>
+      </c>
+      <c r="J23">
+        <v>0.005921715613589569</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>53.36146666666667</v>
+      </c>
+      <c r="N23">
+        <v>160.0844</v>
+      </c>
+      <c r="O23">
+        <v>0.3012755448569878</v>
+      </c>
+      <c r="P23">
+        <v>0.3012755448569878</v>
+      </c>
+      <c r="Q23">
+        <v>1254.939089136756</v>
+      </c>
+      <c r="R23">
+        <v>11294.4518022308</v>
+      </c>
+      <c r="S23">
+        <v>0.001784068097972329</v>
+      </c>
+      <c r="T23">
+        <v>0.001784068097972329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>23.51770233333334</v>
+      </c>
+      <c r="H24">
+        <v>70.55310700000001</v>
+      </c>
+      <c r="I24">
+        <v>0.005921715613589568</v>
+      </c>
+      <c r="J24">
+        <v>0.005921715613589569</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>39.98186433333333</v>
+      </c>
+      <c r="N24">
+        <v>119.945593</v>
+      </c>
+      <c r="O24">
+        <v>0.2257351364921847</v>
+      </c>
+      <c r="P24">
+        <v>0.2257351364921847</v>
+      </c>
+      <c r="Q24">
+        <v>940.2815841230503</v>
+      </c>
+      <c r="R24">
+        <v>8462.534257107453</v>
+      </c>
+      <c r="S24">
+        <v>0.001336739282301543</v>
+      </c>
+      <c r="T24">
+        <v>0.001336739282301543</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>23.3406417224581</v>
-      </c>
-      <c r="H21">
-        <v>23.3406417224581</v>
-      </c>
-      <c r="I21">
-        <v>0.005959892270556777</v>
-      </c>
-      <c r="J21">
-        <v>0.005959892270556777</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>6.17020432623986</v>
-      </c>
-      <c r="N21">
-        <v>6.17020432623986</v>
-      </c>
-      <c r="O21">
-        <v>0.03531473908425267</v>
-      </c>
-      <c r="P21">
-        <v>0.03531473908425267</v>
-      </c>
-      <c r="Q21">
-        <v>144.0165285331255</v>
-      </c>
-      <c r="R21">
-        <v>144.0165285331255</v>
-      </c>
-      <c r="S21">
-        <v>0.0002104720405049668</v>
-      </c>
-      <c r="T21">
-        <v>0.0002104720405049668</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>23.51770233333334</v>
+      </c>
+      <c r="H25">
+        <v>70.55310700000001</v>
+      </c>
+      <c r="I25">
+        <v>0.005921715613589568</v>
+      </c>
+      <c r="J25">
+        <v>0.005921715613589569</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>34.39145933333334</v>
+      </c>
+      <c r="N25">
+        <v>103.174378</v>
+      </c>
+      <c r="O25">
+        <v>0.1941720551610951</v>
+      </c>
+      <c r="P25">
+        <v>0.1941720551610951</v>
+      </c>
+      <c r="Q25">
+        <v>808.808103410272</v>
+      </c>
+      <c r="R25">
+        <v>7279.272930692448</v>
+      </c>
+      <c r="S25">
+        <v>0.001149831690770232</v>
+      </c>
+      <c r="T25">
+        <v>0.001149831690770232</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>23.51770233333334</v>
+      </c>
+      <c r="H26">
+        <v>70.55310700000001</v>
+      </c>
+      <c r="I26">
+        <v>0.005921715613589568</v>
+      </c>
+      <c r="J26">
+        <v>0.005921715613589569</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>6.474476</v>
+      </c>
+      <c r="N26">
+        <v>19.423428</v>
+      </c>
+      <c r="O26">
+        <v>0.03655449159125106</v>
+      </c>
+      <c r="P26">
+        <v>0.03655449159125106</v>
+      </c>
+      <c r="Q26">
+        <v>152.2647993323107</v>
+      </c>
+      <c r="R26">
+        <v>1370.383193990796</v>
+      </c>
+      <c r="S26">
+        <v>0.00021646530360274</v>
+      </c>
+      <c r="T26">
+        <v>0.00021646530360274</v>
       </c>
     </row>
   </sheetData>
